--- a/biology/Neurosciences/Théorie_de_l'espace_de_travail_global/Théorie_de_l'espace_de_travail_global.xlsx
+++ b/biology/Neurosciences/Théorie_de_l'espace_de_travail_global/Théorie_de_l'espace_de_travail_global.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_de_l%27espace_de_travail_global</t>
+          <t>Théorie_de_l'espace_de_travail_global</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La théorie de l'espace de travail global (TETG), ou en anglais Global workspace theory (GWT), est une théorie de la conscience introduite par Bernard Baars en 1988. Elle a notamment été développée pour pouvoir expliquer de nombreux processus cognitifs, conscients ou non. La conscience y sert d'espace centralisé d'échange d'informations. Elle permet à des réseaux cérébraux spécialisés d'interagir, améliorant l'intégration et l'adaptabilité.
 Cette théorie dresse une analogie entre l'esprit et un théâtre, les pensées conscientes étant comme des entités illuminées au milieu de la scène principale. Le cerveau contient beaucoup de processus et de modules spécialisés qui opèrent en parallèle, et qui en général ne sont pas conscients. L'attention agit comme un projecteur, amenant une partie de cette activité inconsciente à la conscience. L'espace de travail global est un centre fonctionnel de diffusion et d'intégration de l'information, lui permettant d'être diffusée à travers les modules.
